--- a/Day09/Data Asuransi.xlsx
+++ b/Day09/Data Asuransi.xlsx
@@ -8,20 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Purwadhika/Coding/MODUL3/Day09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D5938C-E0FB-6A48-B4C8-58A1B318B3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AB567D-0AE9-9B46-BE22-E7687B1F3513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" xr2:uid="{7F87C710-80A2-9140-9585-A5930E82F34A}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" activeTab="1" xr2:uid="{7F87C710-80A2-9140-9585-A5930E82F34A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$J$2:$J$11</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$J$2:$J$11</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>usia</t>
   </si>
@@ -76,6 +71,21 @@
   </si>
   <si>
     <t>prob' &gt;&gt; odd / (1+odd)</t>
+  </si>
+  <si>
+    <t>y = 1 / 1 + e ^ -(mx + c)</t>
+  </si>
+  <si>
+    <t>m = 0, c = 0</t>
+  </si>
+  <si>
+    <t>m sklearn</t>
+  </si>
+  <si>
+    <t>c sklearn</t>
+  </si>
+  <si>
+    <t>sklearn</t>
   </si>
 </sst>
 </file>
@@ -891,6 +901,1015 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>m = 0, c = 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C31-A045-81F5-E4F6CD364456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C31-A045-81F5-E4F6CD364456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="436395151"/>
+        <c:axId val="493204719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="436395151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493204719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="493204719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436395151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EF7-6642-A413-C761793EFCA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.2950172344473701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36652436703276009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4444370546577715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52518107074620834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60462951104808549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67891186529463465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74512119398748256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80166634755996558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84822217417925949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88541178524997888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EF7-6642-A413-C761793EFCA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="493575039"/>
+        <c:axId val="493415647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="493575039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493415647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="493415647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493575039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -971,6 +1990,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1488,6 +2587,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2060,6 +4191,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98F8704-C789-9448-9F3D-A95FD96F787D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0651FE1-F23D-3A4A-A3A0-FF0636E777D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED20E595-35DF-BC4D-B0C3-F148F52CEF91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +4587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A9B4A5-AE17-DE4D-B745-FCE5CAD6E62A}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -2845,6 +5053,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF29971-2AAF-CD4A-A36D-CA2092EE9706}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0.32398304999999999</v>
+      </c>
+      <c r="F2">
+        <v>-1.19512263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f xml:space="preserve"> 1 / (1 + EXP( -1 * (0 * A4 + 0)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <f xml:space="preserve"> 1 / (1 + EXP( -1 * ($E$2 * A4 + $F$2)))</f>
+        <v>0.2950172344473701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C13" si="0" xml:space="preserve"> 1 / (1 + EXP( -1 * (0 * A5 + 0)))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D13" si="1" xml:space="preserve"> 1 / (1 + EXP( -1 * ($E$2 * A5 + $F$2)))</f>
+        <v>0.36652436703276009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.4444370546577715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.52518107074620834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.60462951104808549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.67891186529463465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.74512119398748256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.80166634755996558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.84822217417925949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.88541178524997888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE888778-F8D5-D449-AE16-C9ADC4CD2215}">
   <dimension ref="A1:B66"/>
   <sheetViews>
